--- a/pkg/Data/GOname.xlsx
+++ b/pkg/Data/GOname.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="42300" yWindow="2760" windowWidth="29380" windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26410" uniqueCount="2355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26518" uniqueCount="2406">
   <si>
     <t>FLC2</t>
   </si>
@@ -7085,6 +7085,159 @@
   </si>
   <si>
     <t>GO:0004066</t>
+  </si>
+  <si>
+    <t>YBR198C</t>
+  </si>
+  <si>
+    <t>YAL053W</t>
+  </si>
+  <si>
+    <t>YAR007C</t>
+  </si>
+  <si>
+    <t>YBR126C</t>
+  </si>
+  <si>
+    <t>YER087W</t>
+  </si>
+  <si>
+    <t>YDR054C</t>
+  </si>
+  <si>
+    <t>YHR019C</t>
+  </si>
+  <si>
+    <t>YDL006W</t>
+  </si>
+  <si>
+    <t>YER090W</t>
+  </si>
+  <si>
+    <t>YGR094W</t>
+  </si>
+  <si>
+    <t>YDR484W</t>
+  </si>
+  <si>
+    <t>YGL001C</t>
+  </si>
+  <si>
+    <t>YER005W</t>
+  </si>
+  <si>
+    <t>YGL253W</t>
+  </si>
+  <si>
+    <t>YGL205W</t>
+  </si>
+  <si>
+    <t>YDL148C</t>
+  </si>
+  <si>
+    <t>YDR176W</t>
+  </si>
+  <si>
+    <t>YDL195W</t>
+  </si>
+  <si>
+    <t>YGL225W</t>
+  </si>
+  <si>
+    <t>YDR443C</t>
+  </si>
+  <si>
+    <t>YGL192W</t>
+  </si>
+  <si>
+    <t>YDR072C</t>
+  </si>
+  <si>
+    <t>YDL215C</t>
+  </si>
+  <si>
+    <t>YKR089C</t>
+  </si>
+  <si>
+    <t>YLL029W</t>
+  </si>
+  <si>
+    <t>YJR117W</t>
+  </si>
+  <si>
+    <t>YPL028W</t>
+  </si>
+  <si>
+    <t>YMR186W</t>
+  </si>
+  <si>
+    <t>YJL100W</t>
+  </si>
+  <si>
+    <t>YPL104W</t>
+  </si>
+  <si>
+    <t>YOR361C</t>
+  </si>
+  <si>
+    <t>YIL109C</t>
+  </si>
+  <si>
+    <t>YPL106C</t>
+  </si>
+  <si>
+    <t>YOL097C</t>
+  </si>
+  <si>
+    <t>YPL195W</t>
+  </si>
+  <si>
+    <t>YOR158W</t>
+  </si>
+  <si>
+    <t>YIL125W</t>
+  </si>
+  <si>
+    <t>YNL062C</t>
+  </si>
+  <si>
+    <t>YMR015C</t>
+  </si>
+  <si>
+    <t>YOL145C</t>
+  </si>
+  <si>
+    <t>YML110C</t>
+  </si>
+  <si>
+    <t>YOL049W</t>
+  </si>
+  <si>
+    <t>YNL220W</t>
+  </si>
+  <si>
+    <t>YJR072C</t>
+  </si>
+  <si>
+    <t>YJR068W</t>
+  </si>
+  <si>
+    <t>YMR203W</t>
+  </si>
+  <si>
+    <t>YJL087C</t>
+  </si>
+  <si>
+    <t>YKL034W</t>
+  </si>
+  <si>
+    <t>YHL014C</t>
+  </si>
+  <si>
+    <t>YOR197W</t>
+  </si>
+  <si>
+    <t>YNL123W</t>
   </si>
 </sst>
 </file>
@@ -7133,7 +7286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7156,12 +7309,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7178,11 +7341,21 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7512,4638 +7685,5288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="11" max="11" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
+        <v>2356</v>
       </c>
       <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1">
-        <v>20010118</v>
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P1">
+        <v>20031028</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
+        <v>2357</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2">
-        <v>20121124</v>
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P2">
+        <v>20041008</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3">
-        <v>20121124</v>
+      <c r="N3" t="s">
+        <v>70</v>
       </c>
       <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3">
+        <v>20121124</v>
+      </c>
+      <c r="Q3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
       </c>
       <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4">
+        <v>20121124</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5">
+        <v>20031104</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4">
-        <v>20031028</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5">
-        <v>20041008</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6">
-        <v>20020507</v>
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P6">
+        <v>20121124</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7">
         <v>20031028</v>
       </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8">
+        <v>20030730</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H9" t="s">
         <v>113</v>
       </c>
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8">
-        <v>20121124</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9">
+        <v>20121124</v>
+      </c>
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10">
+        <v>20121124</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11">
+        <v>20020507</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12">
+        <v>20100524</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>120</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
         <v>121</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H13" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
         <v>123</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K13" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M13" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9">
-        <v>20121124</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13">
+        <v>20121124</v>
+      </c>
+      <c r="Q13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14">
+        <v>20010118</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>137</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
         <v>140</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K15" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L15" t="s">
         <v>141</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M15" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10">
-        <v>20121124</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <v>20121124</v>
+      </c>
+      <c r="Q15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11">
-        <v>20031104</v>
-      </c>
-      <c r="O11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12">
-        <v>20121124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13">
-        <v>20100524</v>
-      </c>
-      <c r="O13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14">
-        <v>20030730</v>
-      </c>
-      <c r="O14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15">
-        <v>20121124</v>
-      </c>
-      <c r="O15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>222</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>223</v>
       </c>
       <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
         <v>224</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>225</v>
       </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
         <v>226</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>227</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16">
-        <v>20121124</v>
+      <c r="N16" t="s">
+        <v>70</v>
       </c>
       <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16">
+        <v>20121124</v>
+      </c>
+      <c r="Q16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>530</v>
+      </c>
+      <c r="M17" t="s">
+        <v>531</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17">
+        <v>20021202</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>657</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>658</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" t="s">
+        <v>659</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>660</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18">
+        <v>20030922</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>482</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>483</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>484</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H19" t="s">
         <v>485</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I19" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K19" t="s">
         <v>107</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L19" t="s">
         <v>486</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M19" t="s">
         <v>12</v>
       </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17">
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19">
         <v>20120607</v>
       </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="Q19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>669</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H20" t="s">
+        <v>671</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>672</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>673</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20">
+        <v>20121124</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>648</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G21" t="s">
+        <v>649</v>
+      </c>
+      <c r="H21" t="s">
+        <v>650</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" t="s">
+        <v>651</v>
+      </c>
+      <c r="M21" t="s">
+        <v>652</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21">
+        <v>20070803</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>522</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22">
+        <v>20121124</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>692</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>693</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" t="s">
+        <v>694</v>
+      </c>
+      <c r="M23" t="s">
+        <v>695</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23">
+        <v>20121124</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>848</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G24" t="s">
+        <v>849</v>
+      </c>
+      <c r="H24" t="s">
+        <v>850</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>851</v>
+      </c>
+      <c r="K24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" t="s">
+        <v>852</v>
+      </c>
+      <c r="M24" t="s">
+        <v>853</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24">
+        <v>20121124</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>526</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25">
+        <v>20031028</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" t="s">
+        <v>663</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>664</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26">
+        <v>20110601</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" t="s">
+        <v>511</v>
+      </c>
+      <c r="M27" t="s">
+        <v>512</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27">
+        <v>20030619</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>763</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" t="s">
+        <v>765</v>
+      </c>
+      <c r="M28" t="s">
+        <v>766</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28">
+        <v>20121124</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>487</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>488</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s">
         <v>77</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K29" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L29" t="s">
         <v>489</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M29" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18">
-        <v>20121124</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29">
+        <v>20121124</v>
+      </c>
+      <c r="Q29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>683</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" t="s">
+        <v>684</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s">
+        <v>685</v>
+      </c>
+      <c r="K30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" t="s">
+        <v>686</v>
+      </c>
+      <c r="M30" t="s">
+        <v>687</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30">
+        <v>20121124</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" t="s">
+        <v>503</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31">
+        <v>20031028</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>744</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G32" t="s">
+        <v>745</v>
+      </c>
+      <c r="H32" t="s">
+        <v>746</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>747</v>
+      </c>
+      <c r="M32" t="s">
+        <v>748</v>
+      </c>
+      <c r="N32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32">
+        <v>20110914</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>536</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" t="s">
+        <v>537</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33">
+        <v>20121124</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>550</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="s">
+        <v>552</v>
+      </c>
+      <c r="M34" t="s">
+        <v>553</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34">
+        <v>20121124</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>505</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" t="s">
+        <v>506</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35">
+        <v>20121124</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>533</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" t="s">
+        <v>534</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36">
+        <v>20121124</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>581</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G37" t="s">
+        <v>582</v>
+      </c>
+      <c r="H37" t="s">
+        <v>583</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" t="s">
+        <v>584</v>
+      </c>
+      <c r="M37" t="s">
+        <v>585</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37">
+        <v>20020617</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s">
+        <v>495</v>
+      </c>
+      <c r="I38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s">
+        <v>496</v>
+      </c>
+      <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" t="s">
+        <v>497</v>
+      </c>
+      <c r="M38" t="s">
+        <v>498</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38">
+        <v>20121124</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" t="s">
+        <v>541</v>
+      </c>
+      <c r="M39" t="s">
+        <v>542</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39">
+        <v>20031028</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
         <v>490</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
         <v>491</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H40" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
         <v>77</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K40" t="s">
         <v>78</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L40" t="s">
         <v>492</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M40" t="s">
         <v>22</v>
       </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19">
-        <v>20121124</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40">
+        <v>20121124</v>
+      </c>
+      <c r="Q40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" t="s">
-        <v>494</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>575</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>576</v>
+      </c>
+      <c r="H41" t="s">
+        <v>577</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" t="s">
+        <v>578</v>
+      </c>
+      <c r="M41" t="s">
+        <v>579</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41">
+        <v>20010118</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>750</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>751</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>752</v>
+      </c>
+      <c r="H42" t="s">
+        <v>753</v>
+      </c>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s">
+        <v>754</v>
+      </c>
+      <c r="K42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L42" t="s">
+        <v>755</v>
+      </c>
+      <c r="M42" t="s">
+        <v>756</v>
+      </c>
+      <c r="N42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42">
+        <v>20121124</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>601</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>602</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
+        <v>603</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>604</v>
+      </c>
+      <c r="K43" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s">
+        <v>605</v>
+      </c>
+      <c r="M43" t="s">
+        <v>606</v>
+      </c>
+      <c r="N43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43">
+        <v>20121124</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>696</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" t="s">
+        <v>698</v>
+      </c>
+      <c r="M44" t="s">
+        <v>699</v>
+      </c>
+      <c r="N44" t="s">
+        <v>70</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44">
+        <v>20121124</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>586</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>587</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G45" t="s">
+        <v>588</v>
+      </c>
+      <c r="H45" t="s">
+        <v>589</v>
+      </c>
+      <c r="I45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" t="s">
+        <v>590</v>
+      </c>
+      <c r="M45" t="s">
+        <v>591</v>
+      </c>
+      <c r="N45" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45">
+        <v>20050609</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>644</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>645</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" t="s">
+        <v>646</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46">
+        <v>20121124</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>543</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>544</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G47" t="s">
         <v>82</v>
       </c>
-      <c r="F20" t="s">
-        <v>495</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>496</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H47" t="s">
+        <v>545</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>546</v>
+      </c>
+      <c r="K47" t="s">
         <v>67</v>
       </c>
-      <c r="J20" t="s">
-        <v>497</v>
-      </c>
-      <c r="K20" t="s">
-        <v>498</v>
-      </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20">
-        <v>20121124</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="L47" t="s">
+        <v>547</v>
+      </c>
+      <c r="M47" t="s">
+        <v>548</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47">
+        <v>20121124</v>
+      </c>
+      <c r="Q47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>501</v>
-      </c>
-      <c r="C21" t="s">
-        <v>502</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>554</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>555</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
         <v>82</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>556</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48">
+        <v>20121124</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>557</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s">
+        <v>559</v>
+      </c>
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49">
+        <v>20020507</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>632</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>633</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" t="s">
+        <v>107</v>
+      </c>
+      <c r="L50" t="s">
+        <v>175</v>
+      </c>
+      <c r="M50" t="s">
+        <v>634</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50">
+        <v>20021029</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>514</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>515</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s">
+        <v>516</v>
+      </c>
+      <c r="K51" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" t="s">
+        <v>517</v>
+      </c>
+      <c r="M51" t="s">
+        <v>518</v>
+      </c>
+      <c r="N51" t="s">
+        <v>70</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51">
+        <v>20121124</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" t="s">
+        <v>70</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52">
+        <v>20121124</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53">
+        <v>20070425</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I54" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M54" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" t="s">
+        <v>70</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54">
+        <v>20121010</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N55" t="s">
+        <v>70</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55">
+        <v>20121124</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I56" t="s">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1420</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1421</v>
+      </c>
+      <c r="N56" t="s">
+        <v>70</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56">
+        <v>20121124</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I57" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" t="s">
+        <v>70</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57">
+        <v>20060913</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2085</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" t="s">
+        <v>70</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58">
+        <v>20120907</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2101</v>
+      </c>
+      <c r="M59" t="s">
+        <v>2102</v>
+      </c>
+      <c r="N59" t="s">
+        <v>70</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59">
+        <v>20121124</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N60" t="s">
+        <v>70</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60">
+        <v>20020507</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M61" t="s">
+        <v>2080</v>
+      </c>
+      <c r="N61" t="s">
+        <v>70</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61">
+        <v>20080813</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
         <v>89</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I62" t="s">
         <v>66</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K62" t="s">
         <v>67</v>
       </c>
-      <c r="J21" t="s">
-        <v>503</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21">
+      <c r="L62" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2064</v>
+      </c>
+      <c r="N62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62">
         <v>20031028</v>
       </c>
-      <c r="O21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C22" t="s">
-        <v>505</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="Q62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N63" t="s">
+        <v>70</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63">
+        <v>20121124</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>284</v>
+      </c>
+      <c r="H64" t="s">
+        <v>778</v>
+      </c>
+      <c r="I64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>779</v>
+      </c>
+      <c r="K64" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2236</v>
+      </c>
+      <c r="M64" t="s">
+        <v>2237</v>
+      </c>
+      <c r="N64" t="s">
+        <v>70</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64">
+        <v>20121124</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I65" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1415</v>
+      </c>
+      <c r="M65" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" t="s">
+        <v>70</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65">
+        <v>20121124</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2114</v>
+      </c>
+      <c r="M66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66">
+        <v>20010118</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2045</v>
+      </c>
+      <c r="K67" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67">
+        <v>20121124</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K68" t="s">
+        <v>107</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N68" t="s">
+        <v>70</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68">
+        <v>20090204</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>185</v>
+      </c>
+      <c r="H69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K69" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M69" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" t="s">
+        <v>70</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69">
+        <v>20121124</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s">
+        <v>78</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N70" t="s">
+        <v>70</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70">
+        <v>20121124</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+      <c r="H71" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" t="s">
+        <v>107</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
+        <v>70</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71">
+        <v>20021126</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s">
+        <v>78</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>70</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72">
+        <v>20121124</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s">
+        <v>118</v>
+      </c>
+      <c r="K73" t="s">
+        <v>107</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" t="s">
+        <v>70</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73">
+        <v>20121124</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
         <v>82</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H74" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I74" t="s">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s">
         <v>84</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K74" t="s">
         <v>67</v>
       </c>
-      <c r="J22" t="s">
-        <v>506</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22">
-        <v>20121124</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="L74" t="s">
+        <v>2069</v>
+      </c>
+      <c r="M74" t="s">
+        <v>2070</v>
+      </c>
+      <c r="N74" t="s">
+        <v>70</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74">
+        <v>20121124</v>
+      </c>
+      <c r="Q74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>508</v>
-      </c>
-      <c r="C23" t="s">
-        <v>509</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G75" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" t="s">
+        <v>280</v>
+      </c>
+      <c r="I75" t="s">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s">
+        <v>281</v>
+      </c>
+      <c r="K75" t="s">
+        <v>78</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N75" t="s">
+        <v>70</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75">
+        <v>20121124</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I76" t="s">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K76" t="s">
+        <v>78</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N76" t="s">
+        <v>70</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76">
+        <v>20121124</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2213</v>
+      </c>
+      <c r="I77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2214</v>
+      </c>
+      <c r="K77" t="s">
+        <v>78</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2215</v>
+      </c>
+      <c r="M77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" t="s">
+        <v>70</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77">
+        <v>20121124</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G78" t="s">
         <v>82</v>
       </c>
-      <c r="F23" t="s">
-        <v>510</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H78" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" t="s">
         <v>66</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K78" t="s">
         <v>67</v>
       </c>
-      <c r="J23" t="s">
-        <v>511</v>
-      </c>
-      <c r="K23" t="s">
-        <v>512</v>
-      </c>
-      <c r="L23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23">
-        <v>20030619</v>
-      </c>
-      <c r="O23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>513</v>
-      </c>
-      <c r="C24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="L78" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N78" t="s">
+        <v>70</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78">
+        <v>20031028</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G79" t="s">
+        <v>986</v>
+      </c>
+      <c r="H79" t="s">
+        <v>987</v>
+      </c>
+      <c r="I79" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s">
+        <v>988</v>
+      </c>
+      <c r="K79" t="s">
+        <v>107</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2093</v>
+      </c>
+      <c r="M79" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N79" t="s">
+        <v>70</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79">
+        <v>20121124</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s">
+        <v>723</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I80" t="s">
+        <v>66</v>
+      </c>
+      <c r="K80" t="s">
+        <v>78</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M80" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80">
+        <v>20110602</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I81" t="s">
+        <v>195</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K81" t="s">
+        <v>67</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1440</v>
+      </c>
+      <c r="N81" t="s">
+        <v>70</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81">
+        <v>20100805</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" t="s">
         <v>82</v>
       </c>
-      <c r="F24" t="s">
-        <v>515</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>516</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H82" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K82" t="s">
         <v>67</v>
       </c>
-      <c r="J24" t="s">
-        <v>517</v>
-      </c>
-      <c r="K24" t="s">
-        <v>518</v>
-      </c>
-      <c r="L24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24">
-        <v>20121124</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="L82" t="s">
+        <v>2067</v>
+      </c>
+      <c r="M82" t="s">
+        <v>53</v>
+      </c>
+      <c r="N82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82">
+        <v>20070523</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I83" t="s">
+        <v>66</v>
+      </c>
+      <c r="K83" t="s">
+        <v>67</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M83" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" t="s">
+        <v>70</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83">
+        <v>20060804</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2405</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s">
+        <v>78</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M84" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N84" t="s">
+        <v>70</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84">
+        <v>20121124</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85" t="s">
+        <v>67</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M85" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85">
+        <v>20020507</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>723</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I86" t="s">
+        <v>195</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K86" t="s">
+        <v>78</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M86" t="s">
+        <v>34</v>
+      </c>
+      <c r="N86" t="s">
+        <v>70</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86">
+        <v>20110513</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2053</v>
+      </c>
+      <c r="M87" t="s">
+        <v>2054</v>
+      </c>
+      <c r="N87" t="s">
+        <v>70</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87">
+        <v>20121124</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I88" t="s">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K88" t="s">
+        <v>78</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1477</v>
+      </c>
+      <c r="M88" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" t="s">
+        <v>70</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88">
+        <v>20121124</v>
+      </c>
+      <c r="Q88" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>520</v>
-      </c>
-      <c r="C25" t="s">
-        <v>521</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="89" spans="1:17">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s">
         <v>82</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H89" t="s">
         <v>83</v>
       </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I89" t="s">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s">
         <v>84</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K89" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
-        <v>522</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25">
-        <v>20121124</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="L89" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M89" t="s">
+        <v>36</v>
+      </c>
+      <c r="N89" t="s">
+        <v>70</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89">
+        <v>20121124</v>
+      </c>
+      <c r="Q89" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>524</v>
-      </c>
-      <c r="C26" t="s">
-        <v>525</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="90" spans="1:17">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" t="s">
         <v>82</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H90" t="s">
         <v>89</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I90" t="s">
         <v>66</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K90" t="s">
         <v>67</v>
       </c>
-      <c r="J26" t="s">
-        <v>526</v>
-      </c>
-      <c r="K26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26">
+      <c r="L90" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M90" t="s">
+        <v>54</v>
+      </c>
+      <c r="N90" t="s">
+        <v>70</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90">
         <v>20031028</v>
       </c>
-      <c r="O26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>527</v>
-      </c>
-      <c r="C27" t="s">
-        <v>528</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="Q90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H91" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K91" t="s">
+        <v>107</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2090</v>
+      </c>
+      <c r="M91" t="s">
+        <v>55</v>
+      </c>
+      <c r="N91" t="s">
+        <v>70</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91">
+        <v>20020816</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" t="s">
+        <v>211</v>
+      </c>
+      <c r="I92" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" t="s">
+        <v>212</v>
+      </c>
+      <c r="K92" t="s">
+        <v>67</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M92" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" t="s">
+        <v>70</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92">
+        <v>20121124</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G93" t="s">
+        <v>475</v>
+      </c>
+      <c r="H93" t="s">
+        <v>476</v>
+      </c>
+      <c r="I93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s">
+        <v>477</v>
+      </c>
+      <c r="K93" t="s">
+        <v>78</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1734</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1735</v>
+      </c>
+      <c r="N93" t="s">
+        <v>70</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93">
+        <v>20121124</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G94" t="s">
         <v>82</v>
       </c>
-      <c r="F27" t="s">
-        <v>529</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H94" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I94" t="s">
+        <v>93</v>
+      </c>
+      <c r="K94" t="s">
+        <v>67</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1391</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N94" t="s">
+        <v>70</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94">
+        <v>20020928</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G95" t="s">
+        <v>185</v>
+      </c>
+      <c r="H95" t="s">
+        <v>188</v>
+      </c>
+      <c r="I95" t="s">
+        <v>76</v>
+      </c>
+      <c r="J95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" t="s">
+        <v>78</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N95" t="s">
+        <v>70</v>
+      </c>
+      <c r="O95" t="s">
+        <v>71</v>
+      </c>
+      <c r="P95">
+        <v>20121124</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+      <c r="I96" t="s">
+        <v>76</v>
+      </c>
+      <c r="J96" t="s">
+        <v>84</v>
+      </c>
+      <c r="K96" t="s">
+        <v>67</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M96" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" t="s">
+        <v>70</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96">
+        <v>20121124</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I97" t="s">
+        <v>195</v>
+      </c>
+      <c r="K97" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N97" t="s">
+        <v>70</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97">
+        <v>20081112</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s">
+        <v>78</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1320</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N98" t="s">
+        <v>70</v>
+      </c>
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98">
+        <v>20121124</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G99" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99" t="s">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s">
+        <v>84</v>
+      </c>
+      <c r="K99" t="s">
+        <v>67</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N99" t="s">
+        <v>70</v>
+      </c>
+      <c r="O99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P99">
+        <v>20121124</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2381</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100" t="s">
+        <v>76</v>
+      </c>
+      <c r="J100" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" t="s">
+        <v>67</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N100" t="s">
+        <v>70</v>
+      </c>
+      <c r="O100" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100">
+        <v>20121124</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I101" t="s">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K101" t="s">
+        <v>67</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N101" t="s">
+        <v>70</v>
+      </c>
+      <c r="O101" t="s">
+        <v>71</v>
+      </c>
+      <c r="P101">
+        <v>20121124</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s">
+        <v>89</v>
+      </c>
+      <c r="I102" t="s">
         <v>66</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K102" t="s">
         <v>67</v>
       </c>
-      <c r="J27" t="s">
-        <v>530</v>
-      </c>
-      <c r="K27" t="s">
-        <v>531</v>
-      </c>
-      <c r="L27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27">
-        <v>20021202</v>
-      </c>
-      <c r="O27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>532</v>
-      </c>
-      <c r="C28" t="s">
-        <v>533</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="L102" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1383</v>
+      </c>
+      <c r="N102" t="s">
+        <v>70</v>
+      </c>
+      <c r="O102" t="s">
+        <v>71</v>
+      </c>
+      <c r="P102">
+        <v>20061121</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H103" t="s">
+        <v>666</v>
+      </c>
+      <c r="I103" t="s">
+        <v>66</v>
+      </c>
+      <c r="K103" t="s">
+        <v>67</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M103" t="s">
+        <v>39</v>
+      </c>
+      <c r="N103" t="s">
+        <v>70</v>
+      </c>
+      <c r="O103" t="s">
+        <v>71</v>
+      </c>
+      <c r="P103">
+        <v>20020620</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I104" t="s">
+        <v>110</v>
+      </c>
+      <c r="K104" t="s">
+        <v>107</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N104" t="s">
+        <v>70</v>
+      </c>
+      <c r="O104" t="s">
+        <v>71</v>
+      </c>
+      <c r="P104">
+        <v>20121021</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s">
         <v>86</v>
       </c>
-      <c r="G28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I105" t="s">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s">
         <v>87</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K105" t="s">
         <v>67</v>
       </c>
-      <c r="J28" t="s">
-        <v>534</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28">
-        <v>20121124</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="L105" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M105" t="s">
+        <v>40</v>
+      </c>
+      <c r="N105" t="s">
+        <v>70</v>
+      </c>
+      <c r="O105" t="s">
+        <v>71</v>
+      </c>
+      <c r="P105">
+        <v>20121124</v>
+      </c>
+      <c r="Q105" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>535</v>
-      </c>
-      <c r="C29" t="s">
-        <v>536</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="106" spans="1:17">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E106" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" t="s">
         <v>82</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H106" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I106" t="s">
+        <v>192</v>
+      </c>
+      <c r="K106" t="s">
+        <v>67</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M106" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" t="s">
+        <v>70</v>
+      </c>
+      <c r="O106" t="s">
+        <v>71</v>
+      </c>
+      <c r="P106">
+        <v>20020930</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I107" t="s">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K107" t="s">
+        <v>107</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M107" t="s">
+        <v>42</v>
+      </c>
+      <c r="N107" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107" t="s">
+        <v>71</v>
+      </c>
+      <c r="P107">
+        <v>20121124</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" t="s">
         <v>86</v>
       </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I108" t="s">
+        <v>76</v>
+      </c>
+      <c r="J108" t="s">
         <v>87</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K108" t="s">
         <v>67</v>
       </c>
-      <c r="J29" t="s">
-        <v>537</v>
-      </c>
-      <c r="K29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29">
-        <v>20121124</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="L108" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M108" t="s">
+        <v>43</v>
+      </c>
+      <c r="N108" t="s">
+        <v>70</v>
+      </c>
+      <c r="O108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108">
+        <v>20121124</v>
+      </c>
+      <c r="Q108" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>539</v>
-      </c>
-      <c r="C30" t="s">
-        <v>540</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" t="s">
-        <v>541</v>
-      </c>
-      <c r="K30" t="s">
-        <v>542</v>
-      </c>
-      <c r="L30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30">
-        <v>20031028</v>
-      </c>
-      <c r="O30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>543</v>
-      </c>
-      <c r="C31" t="s">
-        <v>544</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" t="s">
-        <v>545</v>
-      </c>
-      <c r="G31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s">
-        <v>546</v>
-      </c>
-      <c r="I31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" t="s">
-        <v>547</v>
-      </c>
-      <c r="K31" t="s">
-        <v>548</v>
-      </c>
-      <c r="L31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N31">
-        <v>20121124</v>
-      </c>
-      <c r="O31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" t="s">
-        <v>551</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" t="s">
-        <v>552</v>
-      </c>
-      <c r="K32" t="s">
-        <v>553</v>
-      </c>
-      <c r="L32" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32">
-        <v>20121124</v>
-      </c>
-      <c r="O32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>554</v>
-      </c>
-      <c r="C33" t="s">
-        <v>555</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" t="s">
-        <v>556</v>
-      </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" t="s">
-        <v>71</v>
-      </c>
-      <c r="N33">
-        <v>20121124</v>
-      </c>
-      <c r="O33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>557</v>
-      </c>
-      <c r="C34" t="s">
-        <v>558</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" t="s">
-        <v>559</v>
-      </c>
-      <c r="K34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" t="s">
-        <v>71</v>
-      </c>
-      <c r="N34">
-        <v>20020507</v>
-      </c>
-      <c r="O34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>574</v>
-      </c>
-      <c r="C35" t="s">
-        <v>575</v>
-      </c>
-      <c r="E35" t="s">
-        <v>576</v>
-      </c>
-      <c r="F35" t="s">
-        <v>577</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s">
-        <v>578</v>
-      </c>
-      <c r="K35" t="s">
-        <v>579</v>
-      </c>
-      <c r="L35" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" t="s">
-        <v>71</v>
-      </c>
-      <c r="N35">
-        <v>20010118</v>
-      </c>
-      <c r="O35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>580</v>
-      </c>
-      <c r="C36" t="s">
-        <v>581</v>
-      </c>
-      <c r="E36" t="s">
-        <v>582</v>
-      </c>
-      <c r="F36" t="s">
-        <v>583</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s">
-        <v>584</v>
-      </c>
-      <c r="K36" t="s">
-        <v>585</v>
-      </c>
-      <c r="L36" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" t="s">
-        <v>71</v>
-      </c>
-      <c r="N36">
-        <v>20020617</v>
-      </c>
-      <c r="O36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>586</v>
-      </c>
-      <c r="C37" t="s">
-        <v>587</v>
-      </c>
-      <c r="E37" t="s">
-        <v>588</v>
-      </c>
-      <c r="F37" t="s">
-        <v>589</v>
-      </c>
-      <c r="G37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" t="s">
-        <v>590</v>
-      </c>
-      <c r="K37" t="s">
-        <v>591</v>
-      </c>
-      <c r="L37" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" t="s">
-        <v>71</v>
-      </c>
-      <c r="N37">
-        <v>20050609</v>
-      </c>
-      <c r="O37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C38" t="s">
-        <v>602</v>
-      </c>
-      <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" t="s">
-        <v>603</v>
-      </c>
-      <c r="G38" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s">
-        <v>604</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" t="s">
-        <v>605</v>
-      </c>
-      <c r="K38" t="s">
-        <v>606</v>
-      </c>
-      <c r="L38" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38">
-        <v>20121124</v>
-      </c>
-      <c r="O38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>632</v>
-      </c>
-      <c r="C39" t="s">
-        <v>633</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" t="s">
-        <v>175</v>
-      </c>
-      <c r="K39" t="s">
-        <v>634</v>
-      </c>
-      <c r="L39" t="s">
-        <v>70</v>
-      </c>
-      <c r="M39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N39">
-        <v>20021029</v>
-      </c>
-      <c r="O39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>644</v>
-      </c>
-      <c r="C40" t="s">
-        <v>645</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" t="s">
-        <v>189</v>
-      </c>
-      <c r="I40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s">
-        <v>646</v>
-      </c>
-      <c r="K40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" t="s">
-        <v>71</v>
-      </c>
-      <c r="N40">
-        <v>20121124</v>
-      </c>
-      <c r="O40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>647</v>
-      </c>
-      <c r="C41" t="s">
-        <v>648</v>
-      </c>
-      <c r="E41" t="s">
-        <v>649</v>
-      </c>
-      <c r="F41" t="s">
-        <v>650</v>
-      </c>
-      <c r="G41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" t="s">
-        <v>651</v>
-      </c>
-      <c r="K41" t="s">
-        <v>652</v>
-      </c>
-      <c r="L41" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N41">
-        <v>20070803</v>
-      </c>
-      <c r="O41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>657</v>
-      </c>
-      <c r="C42" t="s">
-        <v>658</v>
-      </c>
-      <c r="E42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" t="s">
-        <v>659</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" t="s">
-        <v>660</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N42">
-        <v>20030922</v>
-      </c>
-      <c r="O42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>661</v>
-      </c>
-      <c r="C43" t="s">
-        <v>662</v>
-      </c>
-      <c r="E43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" t="s">
-        <v>663</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J43" t="s">
-        <v>664</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" t="s">
-        <v>70</v>
-      </c>
-      <c r="M43" t="s">
-        <v>71</v>
-      </c>
-      <c r="N43">
-        <v>20110601</v>
-      </c>
-      <c r="O43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>668</v>
-      </c>
-      <c r="C44" t="s">
-        <v>669</v>
-      </c>
-      <c r="E44" t="s">
-        <v>670</v>
-      </c>
-      <c r="F44" t="s">
-        <v>671</v>
-      </c>
-      <c r="G44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" t="s">
-        <v>672</v>
-      </c>
-      <c r="I44" t="s">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s">
-        <v>673</v>
-      </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" t="s">
-        <v>71</v>
-      </c>
-      <c r="N44">
-        <v>20121124</v>
-      </c>
-      <c r="O44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>682</v>
-      </c>
-      <c r="C45" t="s">
-        <v>683</v>
-      </c>
-      <c r="E45" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" t="s">
-        <v>684</v>
-      </c>
-      <c r="G45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" t="s">
-        <v>685</v>
-      </c>
-      <c r="I45" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" t="s">
-        <v>686</v>
-      </c>
-      <c r="K45" t="s">
-        <v>687</v>
-      </c>
-      <c r="L45" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" t="s">
-        <v>71</v>
-      </c>
-      <c r="N45">
-        <v>20121124</v>
-      </c>
-      <c r="O45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>692</v>
-      </c>
-      <c r="C46" t="s">
-        <v>693</v>
-      </c>
-      <c r="E46" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" t="s">
-        <v>694</v>
-      </c>
-      <c r="K46" t="s">
-        <v>695</v>
-      </c>
-      <c r="L46" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" t="s">
-        <v>71</v>
-      </c>
-      <c r="N46">
-        <v>20121124</v>
-      </c>
-      <c r="O46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>696</v>
-      </c>
-      <c r="C47" t="s">
-        <v>697</v>
-      </c>
-      <c r="E47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" t="s">
-        <v>243</v>
-      </c>
-      <c r="I47" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" t="s">
-        <v>698</v>
-      </c>
-      <c r="K47" t="s">
-        <v>699</v>
-      </c>
-      <c r="L47" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" t="s">
-        <v>71</v>
-      </c>
-      <c r="N47">
-        <v>20121124</v>
-      </c>
-      <c r="O47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>743</v>
-      </c>
-      <c r="C48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E48" t="s">
-        <v>745</v>
-      </c>
-      <c r="F48" t="s">
-        <v>746</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" t="s">
-        <v>747</v>
-      </c>
-      <c r="K48" t="s">
-        <v>748</v>
-      </c>
-      <c r="L48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" t="s">
-        <v>71</v>
-      </c>
-      <c r="N48">
-        <v>20110914</v>
-      </c>
-      <c r="O48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>750</v>
-      </c>
-      <c r="C49" t="s">
-        <v>751</v>
-      </c>
-      <c r="E49" t="s">
-        <v>752</v>
-      </c>
-      <c r="F49" t="s">
-        <v>753</v>
-      </c>
-      <c r="G49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" t="s">
-        <v>754</v>
-      </c>
-      <c r="I49" t="s">
-        <v>107</v>
-      </c>
-      <c r="J49" t="s">
-        <v>755</v>
-      </c>
-      <c r="K49" t="s">
-        <v>756</v>
-      </c>
-      <c r="L49" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N49">
-        <v>20121124</v>
-      </c>
-      <c r="O49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>763</v>
-      </c>
-      <c r="C50" t="s">
-        <v>764</v>
-      </c>
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" t="s">
-        <v>280</v>
-      </c>
-      <c r="G50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" t="s">
-        <v>281</v>
-      </c>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s">
-        <v>765</v>
-      </c>
-      <c r="K50" t="s">
-        <v>766</v>
-      </c>
-      <c r="L50" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" t="s">
-        <v>71</v>
-      </c>
-      <c r="N50">
-        <v>20121124</v>
-      </c>
-      <c r="O50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>847</v>
-      </c>
-      <c r="C51" t="s">
-        <v>848</v>
-      </c>
-      <c r="E51" t="s">
-        <v>849</v>
-      </c>
-      <c r="F51" t="s">
-        <v>850</v>
-      </c>
-      <c r="G51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" t="s">
-        <v>851</v>
-      </c>
-      <c r="I51" t="s">
-        <v>107</v>
-      </c>
-      <c r="J51" t="s">
-        <v>852</v>
-      </c>
-      <c r="K51" t="s">
-        <v>853</v>
-      </c>
-      <c r="L51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M51" t="s">
-        <v>71</v>
-      </c>
-      <c r="N51">
-        <v>20121124</v>
-      </c>
-      <c r="O51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G52" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1312</v>
-      </c>
-      <c r="L52" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" t="s">
-        <v>71</v>
-      </c>
-      <c r="N52">
-        <v>20090204</v>
-      </c>
-      <c r="O52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1316</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L53" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s">
-        <v>71</v>
-      </c>
-      <c r="N53">
-        <v>20121124</v>
-      </c>
-      <c r="O53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" t="s">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L54" t="s">
-        <v>70</v>
-      </c>
-      <c r="M54" t="s">
-        <v>71</v>
-      </c>
-      <c r="N54">
-        <v>20121124</v>
-      </c>
-      <c r="O54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K55" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" t="s">
-        <v>70</v>
-      </c>
-      <c r="M55" t="s">
-        <v>71</v>
-      </c>
-      <c r="N55">
-        <v>20121124</v>
-      </c>
-      <c r="O55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1327</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1328</v>
-      </c>
-      <c r="L56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M56" t="s">
-        <v>71</v>
-      </c>
-      <c r="N56">
-        <v>20121124</v>
-      </c>
-      <c r="O56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" t="s">
-        <v>87</v>
-      </c>
-      <c r="I57" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" t="s">
-        <v>70</v>
-      </c>
-      <c r="M57" t="s">
-        <v>71</v>
-      </c>
-      <c r="N57">
-        <v>20121124</v>
-      </c>
-      <c r="O57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s">
-        <v>87</v>
-      </c>
-      <c r="I58" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1337</v>
-      </c>
-      <c r="L58" t="s">
-        <v>70</v>
-      </c>
-      <c r="M58" t="s">
-        <v>71</v>
-      </c>
-      <c r="N58">
-        <v>20121124</v>
-      </c>
-      <c r="O58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1340</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L59" t="s">
-        <v>70</v>
-      </c>
-      <c r="M59" t="s">
-        <v>71</v>
-      </c>
-      <c r="N59">
-        <v>20031028</v>
-      </c>
-      <c r="O59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K60" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" t="s">
-        <v>70</v>
-      </c>
-      <c r="M60" t="s">
-        <v>71</v>
-      </c>
-      <c r="N60">
-        <v>20121124</v>
-      </c>
-      <c r="O60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G61" t="s">
-        <v>66</v>
-      </c>
-      <c r="I61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K61" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" t="s">
-        <v>71</v>
-      </c>
-      <c r="N61">
-        <v>20060804</v>
-      </c>
-      <c r="O61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1351</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1352</v>
-      </c>
-      <c r="L62" t="s">
-        <v>70</v>
-      </c>
-      <c r="M62" t="s">
-        <v>71</v>
-      </c>
-      <c r="N62">
-        <v>20020507</v>
-      </c>
-      <c r="O62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" t="s">
-        <v>666</v>
-      </c>
-      <c r="G63" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K63" t="s">
-        <v>39</v>
-      </c>
-      <c r="L63" t="s">
-        <v>70</v>
-      </c>
-      <c r="M63" t="s">
-        <v>71</v>
-      </c>
-      <c r="N63">
-        <v>20020620</v>
-      </c>
-      <c r="O63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E64" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1359</v>
-      </c>
-      <c r="I64" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1360</v>
-      </c>
-      <c r="K64" t="s">
-        <v>1361</v>
-      </c>
-      <c r="L64" t="s">
-        <v>70</v>
-      </c>
-      <c r="M64" t="s">
-        <v>71</v>
-      </c>
-      <c r="N64">
-        <v>20121124</v>
-      </c>
-      <c r="O64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1364</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1365</v>
-      </c>
-      <c r="L65" t="s">
-        <v>70</v>
-      </c>
-      <c r="M65" t="s">
-        <v>71</v>
-      </c>
-      <c r="N65">
-        <v>20121124</v>
-      </c>
-      <c r="O65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K66" t="s">
-        <v>36</v>
-      </c>
-      <c r="L66" t="s">
-        <v>70</v>
-      </c>
-      <c r="M66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N66">
-        <v>20121124</v>
-      </c>
-      <c r="O66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67" t="s">
-        <v>67</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K67" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N67">
-        <v>20121124</v>
-      </c>
-      <c r="O67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E68" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-      <c r="I68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K68" t="s">
-        <v>1376</v>
-      </c>
-      <c r="L68" t="s">
-        <v>70</v>
-      </c>
-      <c r="M68" t="s">
-        <v>71</v>
-      </c>
-      <c r="N68">
-        <v>20121124</v>
-      </c>
-      <c r="O68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E69" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" t="s">
-        <v>87</v>
-      </c>
-      <c r="I69" t="s">
-        <v>67</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K69" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" t="s">
-        <v>70</v>
-      </c>
-      <c r="M69" t="s">
-        <v>71</v>
-      </c>
-      <c r="N69">
-        <v>20121124</v>
-      </c>
-      <c r="O69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" t="s">
-        <v>67</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K70" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L70" t="s">
-        <v>70</v>
-      </c>
-      <c r="M70" t="s">
-        <v>71</v>
-      </c>
-      <c r="N70">
-        <v>20061121</v>
-      </c>
-      <c r="O70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1386</v>
-      </c>
-      <c r="G71" t="s">
-        <v>192</v>
-      </c>
-      <c r="I71" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K71" t="s">
-        <v>41</v>
-      </c>
-      <c r="L71" t="s">
-        <v>70</v>
-      </c>
-      <c r="M71" t="s">
-        <v>71</v>
-      </c>
-      <c r="N71">
-        <v>20020930</v>
-      </c>
-      <c r="O71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K72" t="s">
-        <v>1392</v>
-      </c>
-      <c r="L72" t="s">
-        <v>70</v>
-      </c>
-      <c r="M72" t="s">
-        <v>71</v>
-      </c>
-      <c r="N72">
-        <v>20020928</v>
-      </c>
-      <c r="O72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1396</v>
-      </c>
-      <c r="K73" t="s">
-        <v>33</v>
-      </c>
-      <c r="L73" t="s">
-        <v>70</v>
-      </c>
-      <c r="M73" t="s">
-        <v>71</v>
-      </c>
-      <c r="N73">
-        <v>20020507</v>
-      </c>
-      <c r="O73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G74" t="s">
-        <v>110</v>
-      </c>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-      <c r="J74" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K74" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L74" t="s">
-        <v>70</v>
-      </c>
-      <c r="M74" t="s">
-        <v>71</v>
-      </c>
-      <c r="N74">
-        <v>20121021</v>
-      </c>
-      <c r="O74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G75" t="s">
-        <v>195</v>
-      </c>
-      <c r="I75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K75" t="s">
-        <v>1408</v>
-      </c>
-      <c r="L75" t="s">
-        <v>70</v>
-      </c>
-      <c r="M75" t="s">
-        <v>71</v>
-      </c>
-      <c r="N75">
-        <v>20081112</v>
-      </c>
-      <c r="O75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E76" t="s">
-        <v>116</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G76" t="s">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I76" t="s">
-        <v>107</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1415</v>
-      </c>
-      <c r="K76" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" t="s">
-        <v>70</v>
-      </c>
-      <c r="M76" t="s">
-        <v>71</v>
-      </c>
-      <c r="N76">
-        <v>20121124</v>
-      </c>
-      <c r="O76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E77" t="s">
-        <v>116</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K77" t="s">
-        <v>1421</v>
-      </c>
-      <c r="L77" t="s">
-        <v>70</v>
-      </c>
-      <c r="M77" t="s">
-        <v>71</v>
-      </c>
-      <c r="N77">
-        <v>20121124</v>
-      </c>
-      <c r="O77" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G78" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I78" t="s">
-        <v>107</v>
-      </c>
-      <c r="J78" t="s">
-        <v>1426</v>
-      </c>
-      <c r="K78" t="s">
-        <v>42</v>
-      </c>
-      <c r="L78" t="s">
-        <v>70</v>
-      </c>
-      <c r="M78" t="s">
-        <v>71</v>
-      </c>
-      <c r="N78">
-        <v>20121124</v>
-      </c>
-      <c r="O78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E79" t="s">
-        <v>116</v>
-      </c>
-      <c r="F79" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" t="s">
-        <v>76</v>
-      </c>
-      <c r="H79" t="s">
-        <v>118</v>
-      </c>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1433</v>
-      </c>
-      <c r="K79" t="s">
-        <v>31</v>
-      </c>
-      <c r="L79" t="s">
-        <v>70</v>
-      </c>
-      <c r="M79" t="s">
-        <v>71</v>
-      </c>
-      <c r="N79">
-        <v>20121124</v>
-      </c>
-      <c r="O79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G80" t="s">
-        <v>195</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I80" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1440</v>
-      </c>
-      <c r="L80" t="s">
-        <v>70</v>
-      </c>
-      <c r="M80" t="s">
-        <v>71</v>
-      </c>
-      <c r="N80">
-        <v>20100805</v>
-      </c>
-      <c r="O80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G81" t="s">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I81" t="s">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1460</v>
-      </c>
-      <c r="L81" t="s">
-        <v>70</v>
-      </c>
-      <c r="M81" t="s">
-        <v>71</v>
-      </c>
-      <c r="N81">
-        <v>20121124</v>
-      </c>
-      <c r="O81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" t="s">
-        <v>169</v>
-      </c>
-      <c r="F82" t="s">
-        <v>170</v>
-      </c>
-      <c r="G82" t="s">
-        <v>171</v>
-      </c>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1396</v>
-      </c>
-      <c r="K82" t="s">
-        <v>29</v>
-      </c>
-      <c r="L82" t="s">
-        <v>70</v>
-      </c>
-      <c r="M82" t="s">
-        <v>71</v>
-      </c>
-      <c r="N82">
-        <v>20021126</v>
-      </c>
-      <c r="O82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E83" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" t="s">
-        <v>189</v>
-      </c>
-      <c r="I83" t="s">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1472</v>
-      </c>
-      <c r="L83" t="s">
-        <v>70</v>
-      </c>
-      <c r="M83" t="s">
-        <v>71</v>
-      </c>
-      <c r="N83">
-        <v>20121124</v>
-      </c>
-      <c r="O83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E84" t="s">
-        <v>185</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G84" t="s">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1476</v>
-      </c>
-      <c r="I84" t="s">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K84" t="s">
-        <v>35</v>
-      </c>
-      <c r="L84" t="s">
-        <v>70</v>
-      </c>
-      <c r="M84" t="s">
-        <v>71</v>
-      </c>
-      <c r="N84">
-        <v>20121124</v>
-      </c>
-      <c r="O84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E85" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" t="s">
-        <v>211</v>
-      </c>
-      <c r="G85" t="s">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s">
-        <v>212</v>
-      </c>
-      <c r="I85" t="s">
-        <v>67</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1488</v>
-      </c>
-      <c r="K85" t="s">
-        <v>37</v>
-      </c>
-      <c r="L85" t="s">
-        <v>70</v>
-      </c>
-      <c r="M85" t="s">
-        <v>71</v>
-      </c>
-      <c r="N85">
-        <v>20121124</v>
-      </c>
-      <c r="O85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E86" t="s">
-        <v>224</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G86" t="s">
-        <v>66</v>
-      </c>
-      <c r="I86" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1498</v>
-      </c>
-      <c r="K86" t="s">
-        <v>44</v>
-      </c>
-      <c r="L86" t="s">
-        <v>70</v>
-      </c>
-      <c r="M86" t="s">
-        <v>71</v>
-      </c>
-      <c r="N86">
-        <v>20070425</v>
-      </c>
-      <c r="O86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G87" t="s">
-        <v>66</v>
-      </c>
-      <c r="I87" t="s">
-        <v>67</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K87" t="s">
-        <v>27</v>
-      </c>
-      <c r="L87" t="s">
-        <v>70</v>
-      </c>
-      <c r="M87" t="s">
-        <v>71</v>
-      </c>
-      <c r="N87">
-        <v>20060913</v>
-      </c>
-      <c r="O87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E88" t="s">
-        <v>723</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G88" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I88" t="s">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K88" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" t="s">
-        <v>70</v>
-      </c>
-      <c r="M88" t="s">
-        <v>71</v>
-      </c>
-      <c r="N88">
-        <v>20110513</v>
-      </c>
-      <c r="O88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E89" t="s">
-        <v>279</v>
-      </c>
-      <c r="F89" t="s">
-        <v>280</v>
-      </c>
-      <c r="G89" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" t="s">
-        <v>281</v>
-      </c>
-      <c r="I89" t="s">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K89" t="s">
-        <v>1555</v>
-      </c>
-      <c r="L89" t="s">
-        <v>70</v>
-      </c>
-      <c r="M89" t="s">
-        <v>71</v>
-      </c>
-      <c r="N89">
-        <v>20121124</v>
-      </c>
-      <c r="O89" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1593</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I90" t="s">
-        <v>107</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K90" t="s">
-        <v>45</v>
-      </c>
-      <c r="L90" t="s">
-        <v>70</v>
-      </c>
-      <c r="M90" t="s">
-        <v>71</v>
-      </c>
-      <c r="N90">
-        <v>20121010</v>
-      </c>
-      <c r="O90" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E91" t="s">
-        <v>475</v>
-      </c>
-      <c r="F91" t="s">
-        <v>476</v>
-      </c>
-      <c r="G91" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" t="s">
-        <v>477</v>
-      </c>
-      <c r="I91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1735</v>
-      </c>
-      <c r="L91" t="s">
-        <v>70</v>
-      </c>
-      <c r="M91" t="s">
-        <v>71</v>
-      </c>
-      <c r="N91">
-        <v>20121124</v>
-      </c>
-      <c r="O91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E92" t="s">
-        <v>2043</v>
-      </c>
-      <c r="F92" t="s">
-        <v>2044</v>
-      </c>
-      <c r="G92" t="s">
-        <v>76</v>
-      </c>
-      <c r="H92" t="s">
-        <v>2045</v>
-      </c>
-      <c r="I92" t="s">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s">
-        <v>2046</v>
-      </c>
-      <c r="K92" t="s">
-        <v>48</v>
-      </c>
-      <c r="L92" t="s">
-        <v>70</v>
-      </c>
-      <c r="M92" t="s">
-        <v>71</v>
-      </c>
-      <c r="N92">
-        <v>20121124</v>
-      </c>
-      <c r="O92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2048</v>
-      </c>
-      <c r="E93" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" t="s">
-        <v>76</v>
-      </c>
-      <c r="H93" t="s">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s">
-        <v>78</v>
-      </c>
-      <c r="J93" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K93" t="s">
-        <v>2050</v>
-      </c>
-      <c r="L93" t="s">
-        <v>70</v>
-      </c>
-      <c r="M93" t="s">
-        <v>71</v>
-      </c>
-      <c r="N93">
-        <v>20121124</v>
-      </c>
-      <c r="O93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E94" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s">
-        <v>87</v>
-      </c>
-      <c r="I94" t="s">
-        <v>67</v>
-      </c>
-      <c r="J94" t="s">
-        <v>2053</v>
-      </c>
-      <c r="K94" t="s">
-        <v>2054</v>
-      </c>
-      <c r="L94" t="s">
-        <v>70</v>
-      </c>
-      <c r="M94" t="s">
-        <v>71</v>
-      </c>
-      <c r="N94">
-        <v>20121124</v>
-      </c>
-      <c r="O94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E95" t="s">
-        <v>82</v>
-      </c>
-      <c r="F95" t="s">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s">
-        <v>66</v>
-      </c>
-      <c r="I95" t="s">
-        <v>67</v>
-      </c>
-      <c r="J95" t="s">
-        <v>2059</v>
-      </c>
-      <c r="K95" t="s">
-        <v>54</v>
-      </c>
-      <c r="L95" t="s">
-        <v>70</v>
-      </c>
-      <c r="M95" t="s">
-        <v>71</v>
-      </c>
-      <c r="N95">
-        <v>20031028</v>
-      </c>
-      <c r="O95" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E96" t="s">
-        <v>82</v>
-      </c>
-      <c r="F96" t="s">
-        <v>89</v>
-      </c>
-      <c r="G96" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" t="s">
-        <v>67</v>
-      </c>
-      <c r="J96" t="s">
-        <v>2063</v>
-      </c>
-      <c r="K96" t="s">
-        <v>2064</v>
-      </c>
-      <c r="L96" t="s">
-        <v>70</v>
-      </c>
-      <c r="M96" t="s">
-        <v>71</v>
-      </c>
-      <c r="N96">
-        <v>20031028</v>
-      </c>
-      <c r="O96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2066</v>
-      </c>
-      <c r="E97" t="s">
-        <v>82</v>
-      </c>
-      <c r="F97" t="s">
-        <v>89</v>
-      </c>
-      <c r="G97" t="s">
-        <v>66</v>
-      </c>
-      <c r="I97" t="s">
-        <v>67</v>
-      </c>
-      <c r="J97" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K97" t="s">
-        <v>53</v>
-      </c>
-      <c r="L97" t="s">
-        <v>70</v>
-      </c>
-      <c r="M97" t="s">
-        <v>71</v>
-      </c>
-      <c r="N97">
-        <v>20070523</v>
-      </c>
-      <c r="O97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C98" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s">
-        <v>82</v>
-      </c>
-      <c r="F98" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" t="s">
-        <v>84</v>
-      </c>
-      <c r="I98" t="s">
-        <v>67</v>
-      </c>
-      <c r="J98" t="s">
-        <v>2069</v>
-      </c>
-      <c r="K98" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L98" t="s">
-        <v>70</v>
-      </c>
-      <c r="M98" t="s">
-        <v>71</v>
-      </c>
-      <c r="N98">
-        <v>20121124</v>
-      </c>
-      <c r="O98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E99" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F99" t="s">
-        <v>2078</v>
-      </c>
-      <c r="G99" t="s">
-        <v>66</v>
-      </c>
-      <c r="I99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J99" t="s">
-        <v>2079</v>
-      </c>
-      <c r="K99" t="s">
-        <v>2080</v>
-      </c>
-      <c r="L99" t="s">
-        <v>70</v>
-      </c>
-      <c r="M99" t="s">
-        <v>71</v>
-      </c>
-      <c r="N99">
-        <v>20080813</v>
-      </c>
-      <c r="O99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E100" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F100" t="s">
-        <v>2084</v>
-      </c>
-      <c r="G100" t="s">
-        <v>66</v>
-      </c>
-      <c r="I100" t="s">
-        <v>67</v>
-      </c>
-      <c r="J100" t="s">
-        <v>2085</v>
-      </c>
-      <c r="K100" t="s">
-        <v>46</v>
-      </c>
-      <c r="L100" t="s">
-        <v>70</v>
-      </c>
-      <c r="M100" t="s">
-        <v>71</v>
-      </c>
-      <c r="N100">
-        <v>20120907</v>
-      </c>
-      <c r="O100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2086</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F101" t="s">
-        <v>2089</v>
-      </c>
-      <c r="G101" t="s">
-        <v>66</v>
-      </c>
-      <c r="I101" t="s">
-        <v>107</v>
-      </c>
-      <c r="J101" t="s">
-        <v>2090</v>
-      </c>
-      <c r="K101" t="s">
-        <v>55</v>
-      </c>
-      <c r="L101" t="s">
-        <v>70</v>
-      </c>
-      <c r="M101" t="s">
-        <v>71</v>
-      </c>
-      <c r="N101">
-        <v>20020816</v>
-      </c>
-      <c r="O101" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E102" t="s">
-        <v>986</v>
-      </c>
-      <c r="F102" t="s">
-        <v>987</v>
-      </c>
-      <c r="G102" t="s">
-        <v>76</v>
-      </c>
-      <c r="H102" t="s">
-        <v>988</v>
-      </c>
-      <c r="I102" t="s">
-        <v>107</v>
-      </c>
-      <c r="J102" t="s">
-        <v>2093</v>
-      </c>
-      <c r="K102" t="s">
-        <v>2094</v>
-      </c>
-      <c r="L102" t="s">
-        <v>70</v>
-      </c>
-      <c r="M102" t="s">
-        <v>71</v>
-      </c>
-      <c r="N102">
-        <v>20121124</v>
-      </c>
-      <c r="O102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" t="s">
-        <v>61</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2098</v>
-      </c>
-      <c r="E103" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" t="s">
-        <v>2099</v>
-      </c>
-      <c r="G103" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s">
-        <v>2100</v>
-      </c>
-      <c r="I103" t="s">
-        <v>107</v>
-      </c>
-      <c r="J103" t="s">
-        <v>2101</v>
-      </c>
-      <c r="K103" t="s">
-        <v>2102</v>
-      </c>
-      <c r="L103" t="s">
-        <v>70</v>
-      </c>
-      <c r="M103" t="s">
-        <v>71</v>
-      </c>
-      <c r="N103">
-        <v>20121124</v>
-      </c>
-      <c r="O103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E104" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104" t="s">
-        <v>2113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>66</v>
-      </c>
-      <c r="I104" t="s">
-        <v>67</v>
-      </c>
-      <c r="J104" t="s">
-        <v>2114</v>
-      </c>
-      <c r="K104" t="s">
-        <v>47</v>
-      </c>
-      <c r="L104" t="s">
-        <v>70</v>
-      </c>
-      <c r="M104" t="s">
-        <v>71</v>
-      </c>
-      <c r="N104">
-        <v>20010118</v>
-      </c>
-      <c r="O104" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E105" t="s">
-        <v>185</v>
-      </c>
-      <c r="F105" t="s">
-        <v>188</v>
-      </c>
-      <c r="G105" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" t="s">
-        <v>189</v>
-      </c>
-      <c r="I105" t="s">
-        <v>78</v>
-      </c>
-      <c r="J105" t="s">
-        <v>2126</v>
-      </c>
-      <c r="K105" t="s">
-        <v>49</v>
-      </c>
-      <c r="L105" t="s">
-        <v>70</v>
-      </c>
-      <c r="M105" t="s">
-        <v>71</v>
-      </c>
-      <c r="N105">
-        <v>20121124</v>
-      </c>
-      <c r="O105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2184</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E106" t="s">
-        <v>723</v>
-      </c>
-      <c r="F106" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G106" t="s">
-        <v>66</v>
-      </c>
-      <c r="I106" t="s">
-        <v>78</v>
-      </c>
-      <c r="J106" t="s">
-        <v>2187</v>
-      </c>
-      <c r="K106" t="s">
-        <v>52</v>
-      </c>
-      <c r="L106" t="s">
-        <v>70</v>
-      </c>
-      <c r="M106" t="s">
-        <v>71</v>
-      </c>
-      <c r="N106">
-        <v>20110602</v>
-      </c>
-      <c r="O106" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" t="s">
-        <v>61</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E107" t="s">
-        <v>2212</v>
-      </c>
-      <c r="F107" t="s">
-        <v>2213</v>
-      </c>
-      <c r="G107" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" t="s">
-        <v>2214</v>
-      </c>
-      <c r="I107" t="s">
-        <v>78</v>
-      </c>
-      <c r="J107" t="s">
-        <v>2215</v>
-      </c>
-      <c r="K107" t="s">
-        <v>51</v>
-      </c>
-      <c r="L107" t="s">
-        <v>70</v>
-      </c>
-      <c r="M107" t="s">
-        <v>71</v>
-      </c>
-      <c r="N107">
-        <v>20121124</v>
-      </c>
-      <c r="O107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E108" t="s">
-        <v>284</v>
-      </c>
-      <c r="F108" t="s">
-        <v>778</v>
-      </c>
-      <c r="G108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s">
-        <v>779</v>
-      </c>
-      <c r="I108" t="s">
-        <v>107</v>
-      </c>
-      <c r="J108" t="s">
-        <v>2236</v>
-      </c>
-      <c r="K108" t="s">
-        <v>2237</v>
-      </c>
-      <c r="L108" t="s">
-        <v>70</v>
-      </c>
-      <c r="M108" t="s">
-        <v>71</v>
-      </c>
-      <c r="N108">
-        <v>20121124</v>
-      </c>
-      <c r="O108" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -12162,7 +12985,7 @@
   <dimension ref="A1:O1990"/>
   <sheetViews>
     <sheetView topLeftCell="A1679" workbookViewId="0">
-      <selection activeCell="F1694" sqref="A1:O1990"/>
+      <selection activeCell="J1694" sqref="J1694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
